--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3681866.938339174</v>
+        <v>3679979.356822771</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>265.1806127579634</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>346.6999128968763</v>
       </c>
     </row>
     <row r="3">
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>6.908481403325515</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>222.697201871573</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>65.09474806312791</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>129.0246247964034</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>197.5294886147938</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>340.6116924031656</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>185.8386997826079</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>56.75885316694674</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710087</v>
+        <v>365.2728917710067</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>55.2153367856691</v>
       </c>
       <c r="S13" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>203.8435192151916</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>107.1555119083925</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>122.65197883716</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>127.4321567831323</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>47.90926526970475</v>
       </c>
       <c r="Y22" t="n">
-        <v>203.8435192151921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2533,13 +2533,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>6.348656829618225</v>
       </c>
       <c r="W25" t="n">
-        <v>127.7178027211464</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2609,7 +2609,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>1.095553750565188</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.29718497126937</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533804</v>
+        <v>1.341035737736011</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965543</v>
+        <v>93.41221638965536</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437432</v>
+        <v>90.21779139437425</v>
       </c>
       <c r="G31" t="n">
-        <v>61.55160558598245</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389792</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571497</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523584</v>
+        <v>54.76109577523578</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952711</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080341</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
         <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235379</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
         <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463133</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3755,10 +3755,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463134</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1662.48357412947</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1394.624369323446</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4367,13 +4367,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4425,13 +4425,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>580.2158906240411</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>433.3259431261307</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>264.3261428644631</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>106.5777702969933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>843.3415311720269</v>
+        <v>1515.02307474038</v>
       </c>
       <c r="C5" t="n">
-        <v>843.3415311720269</v>
+        <v>1146.060557799969</v>
       </c>
       <c r="D5" t="n">
-        <v>843.3415311720269</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>843.3415311720269</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>432.3556263824193</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2631.396820247387</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2631.396820247387</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2631.396820247387</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>2278.628164977272</v>
       </c>
       <c r="X5" t="n">
-        <v>1620.08070321196</v>
+        <v>1905.162406716192</v>
       </c>
       <c r="Y5" t="n">
-        <v>1229.941371236149</v>
+        <v>1515.02307474038</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4653,16 +4653,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>528.604248231895</v>
+        <v>184.2708856551154</v>
       </c>
       <c r="C7" t="n">
-        <v>528.604248231895</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>528.604248231895</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4732,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T7" t="n">
-        <v>528.604248231895</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U7" t="n">
-        <v>528.604248231895</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V7" t="n">
-        <v>528.604248231895</v>
+        <v>184.2708856551154</v>
       </c>
       <c r="W7" t="n">
-        <v>528.604248231895</v>
+        <v>184.2708856551154</v>
       </c>
       <c r="X7" t="n">
-        <v>528.604248231895</v>
+        <v>184.2708856551154</v>
       </c>
       <c r="Y7" t="n">
-        <v>528.604248231895</v>
+        <v>184.2708856551154</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1139.146815977588</v>
+        <v>1779.584617183058</v>
       </c>
       <c r="C8" t="n">
-        <v>770.1842990371763</v>
+        <v>1410.622100242646</v>
       </c>
       <c r="D8" t="n">
-        <v>411.9186004304258</v>
+        <v>1052.356401635896</v>
       </c>
       <c r="E8" t="n">
-        <v>411.9186004304258</v>
+        <v>666.5681490376517</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>659.6226482884482</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>241.6588401866351</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278601</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X8" t="n">
-        <v>1915.885988017521</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y8" t="n">
-        <v>1525.74665604171</v>
+        <v>1779.584617183058</v>
       </c>
     </row>
     <row r="9">
@@ -4881,10 +4881,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
         <v>670.8219208598713</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>261.391796148808</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>261.391796148808</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5033,58 +5033,58 @@
         <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,16 +5115,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277035</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341677</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
         <v>1247.466478653857</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471195</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1443.14320309763</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598087</v>
+        <v>1243.223193013183</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1019.437777802689</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>730.3091390162467</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>475.6246508103599</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>475.6246508103599</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123425</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,16 +5352,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>316.9584588710876</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775516</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
         <v>1332.091733170013</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726215</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726215</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609668</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>877.7643257444086</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>877.7643257444086</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>649.7747748463912</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>428.9821957028612</v>
       </c>
     </row>
     <row r="17">
@@ -5489,58 +5489,58 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>221.1079791745889</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247862</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>835.416391538794</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>221.1079791745889</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,19 +5762,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1443.347833878256</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P21" t="n">
         <v>2317.834075963124</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>1075.210845262961</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V22" t="n">
-        <v>820.5263570570741</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="W22" t="n">
-        <v>531.1091870201134</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="X22" t="n">
-        <v>303.119636122096</v>
+        <v>595.7148328008255</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>595.7148328008255</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>303.4575213834692</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>550.2226492899333</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>857.5427825698951</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688073</v>
@@ -6172,25 +6172,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247862</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383449</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V25" t="n">
-        <v>675.0071030383449</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514058</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>462.7283310300495</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>709.4934589365137</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>564.1830073829219</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>395.2468244550149</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473456</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262962</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765199</v>
+        <v>786.0822064765182</v>
       </c>
       <c r="V28" t="n">
-        <v>531.397718270633</v>
+        <v>784.9755865264523</v>
       </c>
       <c r="W28" t="n">
-        <v>531.3977182706332</v>
+        <v>784.9755865264522</v>
       </c>
       <c r="X28" t="n">
-        <v>303.4081673726158</v>
+        <v>784.9755865264522</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>564.183007382922</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141293</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1925.814757496978</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542167</v>
+        <v>564.0654479498173</v>
       </c>
       <c r="C31" t="n">
-        <v>439.5324299542167</v>
+        <v>450.8901303032811</v>
       </c>
       <c r="D31" t="n">
-        <v>345.1766558232516</v>
+        <v>356.5343561723161</v>
       </c>
       <c r="E31" t="n">
-        <v>345.1766558232516</v>
+        <v>356.5343561723161</v>
       </c>
       <c r="F31" t="n">
-        <v>254.0475736067119</v>
+        <v>265.4052739557764</v>
       </c>
       <c r="G31" t="n">
-        <v>191.874234630972</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028586</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933499</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667506</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
         <v>997.6688721962048</v>
@@ -6658,13 +6658,13 @@
         <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>902.680428981892</v>
+        <v>902.6804289818921</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652452</v>
+        <v>730.4517433652454</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030857</v>
+        <v>565.420029503086</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,28 +6698,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6780,25 +6780,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>940.1463453738954</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229664</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504504</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210312</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,13 +6871,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6956,31 +6956,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,61 +7069,61 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254961</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U37" t="n">
         <v>1489.892037025263</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>233.7852434110089</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555215</v>
+        <v>474.7746905116405</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619856</v>
+        <v>721.5398184181047</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1028.859951698066</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229669</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504508</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,13 +7351,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7476,40 +7476,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571611</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1689.561836756087</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>2019.424464420119</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083207</v>
@@ -7558,7 +7558,7 @@
         <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,22 +7567,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254961</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649698</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
         <v>1932.236826184157</v>
@@ -7594,25 +7594,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7661,13 +7661,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,37 +7713,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7822,16 +7822,16 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229573</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,13 +9006,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>29.47535963978211</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>124.3400780863229</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,19 +9252,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>444.4889386861661</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,13 +9489,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>274.3657496970649</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>15.83804904622806</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,16 +9726,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445216</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711621</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>176.7176547498446</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,13 +9966,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445216</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504486</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208061</v>
+        <v>199.6230805871083</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,28 +10428,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>283.6093329825487</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>29.47535963978191</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445216</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>96.03744927814685</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>188.8856946302396</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11145,22 +11145,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>22.04402060665518</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>124.340078086323</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>54.7490156181237</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>82.39383318338569</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>144.9821314154355</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>44.59484226146778</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>158.805195615445</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>177.8003901193324</v>
       </c>
       <c r="Y22" t="n">
-        <v>14.74113413690273</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24421,13 +24421,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>245.7889864942098</v>
       </c>
       <c r="W25" t="n">
-        <v>158.8051956154446</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>251.0420895732628</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.2874683808254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>123.2876878156443</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801224</v>
+        <v>91.23070601801217</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>49.73870624883821</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897913</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571505</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>679007.2774849685</v>
+        <v>679007.2774849684</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778546</v>
+      </c>
+      <c r="C2" t="n">
         <v>738937.5928778547</v>
       </c>
-      <c r="C2" t="n">
-        <v>738937.5928778546</v>
-      </c>
       <c r="D2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="E2" t="n">
         <v>703852.3075278761</v>
       </c>
       <c r="F2" t="n">
-        <v>703852.3075278758</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="G2" t="n">
-        <v>703852.3075278763</v>
+        <v>703852.3075278762</v>
       </c>
       <c r="H2" t="n">
         <v>703852.307527876</v>
       </c>
       <c r="I2" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278756</v>
       </c>
       <c r="J2" t="n">
-        <v>703852.3075278761</v>
+        <v>703852.3075278759</v>
       </c>
       <c r="K2" t="n">
-        <v>732279.8472214858</v>
+        <v>732279.8472214849</v>
       </c>
       <c r="L2" t="n">
-        <v>738937.5928778562</v>
+        <v>738937.5928778558</v>
       </c>
       <c r="M2" t="n">
         <v>738937.5928778563</v>
       </c>
       <c r="N2" t="n">
-        <v>738937.5928778562</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="O2" t="n">
-        <v>738937.5928778562</v>
+        <v>738937.5928778563</v>
       </c>
       <c r="P2" t="n">
-        <v>738937.592877856</v>
+        <v>738937.5928778565</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284554</v>
+        <v>44162.60530284577</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086699</v>
+        <v>10342.90680086691</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284552</v>
+        <v>44162.60530284548</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143904</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="F4" t="n">
+        <v>15045.66962143911</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15045.66962143911</v>
+      </c>
+      <c r="H4" t="n">
         <v>15045.6696214391</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15045.66962143906</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15045.66962143908</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143906</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563558</v>
+        <v>33210.2921356356</v>
       </c>
       <c r="L4" t="n">
+        <v>37464.45686275956</v>
+      </c>
+      <c r="M4" t="n">
+        <v>37464.45686275956</v>
+      </c>
+      <c r="N4" t="n">
         <v>37464.45686275957</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
+        <v>37464.45686275958</v>
+      </c>
+      <c r="P4" t="n">
         <v>37464.45686275957</v>
-      </c>
-      <c r="N4" t="n">
-        <v>37464.45686275954</v>
-      </c>
-      <c r="O4" t="n">
-        <v>37464.45686275954</v>
-      </c>
-      <c r="P4" t="n">
-        <v>37464.45686275956</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26485,28 +26485,28 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="N5" t="n">
-        <v>97715.1058200254</v>
-      </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-90664.3226513218</v>
+        <v>-90664.32265132191</v>
       </c>
       <c r="C6" t="n">
-        <v>499303.5565632225</v>
+        <v>499303.5565632226</v>
       </c>
       <c r="D6" t="n">
-        <v>499303.5565632224</v>
+        <v>499303.5565632227</v>
       </c>
       <c r="E6" t="n">
-        <v>71659.27548082406</v>
+        <v>71561.81635485204</v>
       </c>
       <c r="F6" t="n">
-        <v>596819.3119577202</v>
+        <v>596721.8528317481</v>
       </c>
       <c r="G6" t="n">
-        <v>596819.3119577207</v>
+        <v>596721.8528317484</v>
       </c>
       <c r="H6" t="n">
-        <v>596819.3119577203</v>
+        <v>596721.8528317482</v>
       </c>
       <c r="I6" t="n">
-        <v>596819.3119577204</v>
+        <v>596721.8528317477</v>
       </c>
       <c r="J6" t="n">
-        <v>420396.0927651274</v>
+        <v>420298.6336391551</v>
       </c>
       <c r="K6" t="n">
-        <v>558278.7412527818</v>
+        <v>558260.2475148463</v>
       </c>
       <c r="L6" t="n">
-        <v>593415.1233942043</v>
+        <v>593415.1233942038</v>
       </c>
       <c r="M6" t="n">
         <v>468957.0149612342</v>
       </c>
       <c r="N6" t="n">
-        <v>603758.0301950712</v>
+        <v>603758.0301950704</v>
       </c>
       <c r="O6" t="n">
-        <v>603758.0301950711</v>
+        <v>603758.0301950714</v>
       </c>
       <c r="P6" t="n">
-        <v>559595.4248922255</v>
+        <v>559595.424892226</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.400730798374425e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -26744,16 +26744,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
@@ -26771,13 +26771,13 @@
         <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>3.979645326854224e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108374</v>
+        <v>12.92863350108363</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>3.979645326854224e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>100.0922790130442</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>39.53802575917729</v>
       </c>
     </row>
     <row r="3">
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>128.0571403890127</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>202.924692362643</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>191.086968149222</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>151.3535722945299</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,22 +27774,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>38.2221963022244</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27825,13 +27825,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>27.50561684329045</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>66.26435333854579</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>138.0840729817492</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27904,19 +27904,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>229.7641451696443</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>8.682195192673605e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855693</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
         <v>34.18755300444946</v>
@@ -34141,13 +34141,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647497</v>
@@ -34162,7 +34162,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34217,7 +34217,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
         <v>464.5362854813463</v>
@@ -34238,7 +34238,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34278,10 +34278,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
         <v>45.03122946298631</v>
@@ -34290,10 +34290,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
         <v>234.725964217132</v>
@@ -34302,7 +34302,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34314,13 +34314,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734237</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>180.0507982277213</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35808,13 +35808,13 @@
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,19 +35884,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P17" t="n">
         <v>570.6060255109123</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>777.6835120841789</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,13 +36045,13 @@
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>607.5603230950777</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>166.4134876341674</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560244</v>
@@ -36446,16 +36446,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303305</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109073</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>327.2930933377839</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560244</v>
@@ -36686,13 +36686,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.5077701655656</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
         <v>39.22569997187477</v>
@@ -36835,7 +36835,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109055</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221118</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560244</v>
@@ -36920,19 +36920,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523309</v>
+        <v>406.7164955186331</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412247</v>
+        <v>67.71102679412255</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075294</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
         <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004317</v>
+        <v>94.42895660043177</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>532.867037938573</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>278.7330645958063</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502436</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>137.9476282330535</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>339.4611332181789</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37789,19 +37789,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005179</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411083</v>
+        <v>304.4077228477634</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M43" t="n">
         <v>342.4417313086132</v>
@@ -37956,7 +37956,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980131</v>
+        <v>457.5346514843358</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
